--- a/data/Figures060920.xlsx
+++ b/data/Figures060920.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HNChen\The Brookings Institution\Hutchins Center Team - Documents\Projects\MNC\Final Paper\1_FHWM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/Projects/global-goliaths/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_50AF6FD68CA18A55629906C0604517B00394EEFA" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA10BBF7-43A2-481C-ADC2-7447F0A10B39}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F8BE3A-BF1E-DB4F-94A9-586155F4F874}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fig1" sheetId="5" r:id="rId1"/>
@@ -32837,17 +32837,17 @@
   </sheetPr>
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:O44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.26953125" customWidth="1"/>
-    <col min="5" max="5" width="4.7265625" customWidth="1"/>
+    <col min="1" max="1" width="56.33203125" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="20.7265625" customWidth="1"/>
-    <col min="8" max="15" width="14.26953125" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="15" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -32894,7 +32894,7 @@
       <c r="O2" s="36"/>
       <c r="P2" s="36"/>
     </row>
-    <row r="3" spans="1:16" ht="16.5">
+    <row r="3" spans="1:16" ht="17">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -33017,7 +33017,7 @@
       <c r="O7" s="36"/>
       <c r="P7" s="36"/>
     </row>
-    <row r="8" spans="1:16" ht="16.5">
+    <row r="8" spans="1:16" ht="17">
       <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
@@ -33069,7 +33069,7 @@
       <c r="O9" s="36"/>
       <c r="P9" s="36"/>
     </row>
-    <row r="10" spans="1:16" ht="43.5">
+    <row r="10" spans="1:16" ht="48">
       <c r="A10" s="36" t="s">
         <v>8</v>
       </c>
@@ -33110,7 +33110,7 @@
       </c>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" ht="16">
       <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
@@ -33162,7 +33162,7 @@
       </c>
       <c r="P11" s="36"/>
     </row>
-    <row r="12" spans="1:16" ht="29">
+    <row r="12" spans="1:16" ht="32">
       <c r="A12" s="36"/>
       <c r="B12" s="8"/>
       <c r="C12" s="36"/>
@@ -33206,7 +33206,7 @@
       </c>
       <c r="P12" s="36"/>
     </row>
-    <row r="13" spans="1:16" ht="16.5">
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" s="36" t="s">
         <v>23</v>
       </c>
@@ -33312,7 +33312,7 @@
       <c r="B17" s="8"/>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" ht="16.5">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="36" t="s">
         <v>25</v>
       </c>
@@ -33366,7 +33366,7 @@
       <c r="B22" s="8"/>
       <c r="C22" s="36"/>
     </row>
-    <row r="23" spans="1:3" ht="16.5">
+    <row r="23" spans="1:3" ht="17">
       <c r="A23" s="36" t="s">
         <v>27</v>
       </c>
@@ -33422,7 +33422,7 @@
       <c r="B27" s="8"/>
       <c r="C27" s="36"/>
     </row>
-    <row r="28" spans="1:3" ht="16.5">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" s="36" t="s">
         <v>29</v>
       </c>
@@ -33478,7 +33478,7 @@
       <c r="B32" s="8"/>
       <c r="C32" s="36"/>
     </row>
-    <row r="33" spans="1:15" ht="16.5">
+    <row r="33" spans="1:15" ht="17">
       <c r="A33" s="36" t="s">
         <v>31</v>
       </c>
@@ -33592,7 +33592,7 @@
       <c r="N37" s="36"/>
       <c r="O37" s="36"/>
     </row>
-    <row r="38" spans="1:15" ht="16.5">
+    <row r="38" spans="1:15" ht="17">
       <c r="A38" s="36" t="s">
         <v>33</v>
       </c>
@@ -33883,13 +33883,13 @@
       <selection activeCell="C3" sqref="C3:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="31.1796875" customWidth="1"/>
-    <col min="4" max="5" width="31.7265625" customWidth="1"/>
+    <col min="3" max="3" width="31.1640625" customWidth="1"/>
+    <col min="4" max="5" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" ht="15.5">
+    <row r="3" spans="3:5" ht="16">
       <c r="C3" s="34" t="s">
         <v>136</v>
       </c>
@@ -33964,11 +33964,11 @@
       <selection activeCell="O31" sqref="O31:AA34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="7" width="15.26953125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="16"/>
+    <col min="7" max="7" width="15.33203125" style="16" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="16" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -35928,10 +35928,10 @@
       <selection activeCell="F2" sqref="F2:P22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.26953125" customWidth="1"/>
-    <col min="3" max="4" width="10.7265625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -35942,7 +35942,7 @@
       </c>
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="1:4" ht="31">
+    <row r="2" spans="1:4" ht="34">
       <c r="A2" s="36"/>
       <c r="B2" s="17" t="s">
         <v>154</v>
@@ -36640,9 +36640,9 @@
       <selection activeCell="O6" sqref="O6:X35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="12" max="13" width="13.1796875" customWidth="1"/>
+    <col min="12" max="13" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -36679,7 +36679,7 @@
       <c r="L2" s="36"/>
       <c r="M2" s="36"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5">
+    <row r="3" spans="1:13" ht="17">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
         <v>164</v>
@@ -36702,7 +36702,7 @@
       </c>
       <c r="M3" s="36"/>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="17">
       <c r="A4" s="36"/>
       <c r="B4" s="36" t="s">
         <v>168</v>
@@ -38618,12 +38618,12 @@
       <selection activeCell="H16" sqref="H16:U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="60.1796875" customWidth="1"/>
-    <col min="2" max="3" width="16.7265625" customWidth="1"/>
-    <col min="4" max="5" width="16.7265625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="16.7265625" customWidth="1"/>
+    <col min="1" max="1" width="60.1640625" customWidth="1"/>
+    <col min="2" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
@@ -39415,7 +39415,7 @@
       <c r="AQ11" s="36"/>
       <c r="AR11" s="36"/>
     </row>
-    <row r="14" spans="1:44" ht="87">
+    <row r="14" spans="1:44" ht="80">
       <c r="A14" s="36"/>
       <c r="B14" s="17" t="s">
         <v>175</v>
@@ -40613,10 +40613,10 @@
       <selection activeCell="E7" sqref="E7:Q38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="68.453125" customWidth="1"/>
-    <col min="2" max="3" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="68.5" customWidth="1"/>
+    <col min="2" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:30">
@@ -40893,7 +40893,7 @@
         <v>0.38107220000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="58">
+    <row r="7" spans="1:30" ht="64">
       <c r="A7" s="36"/>
       <c r="B7" s="17" t="s">
         <v>184</v>
@@ -41604,13 +41604,13 @@
   </sheetPr>
   <dimension ref="A2:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="17">
       <c r="A2" s="36" t="s">
         <v>186</v>
       </c>
@@ -41625,7 +41625,7 @@
       <c r="J2" s="36"/>
       <c r="K2" s="36"/>
     </row>
-    <row r="4" spans="1:11" ht="58">
+    <row r="4" spans="1:11" ht="64">
       <c r="A4" s="38" t="s">
         <v>187</v>
       </c>
@@ -41829,7 +41829,7 @@
         <v>0.42421854478592069</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5">
+    <row r="12" spans="1:11" ht="17">
       <c r="A12" s="41" t="s">
         <v>194</v>
       </c>
@@ -41980,14 +41980,14 @@
   </sheetPr>
   <dimension ref="A1:Y44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="7" max="8" width="9.1796875" style="16"/>
-    <col min="9" max="12" width="9.1796875" style="1"/>
+    <col min="7" max="8" width="9.1640625" style="16"/>
+    <col min="9" max="12" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -43794,9 +43794,9 @@
       <selection activeCell="O4" sqref="O4:AA33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.1796875" style="16"/>
+    <col min="9" max="9" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -45940,11 +45940,11 @@
       <selection activeCell="BJ38" sqref="BJ38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.26953125" customWidth="1"/>
-    <col min="39" max="39" width="14.7265625" customWidth="1"/>
-    <col min="49" max="51" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="39" max="39" width="14.6640625" customWidth="1"/>
+    <col min="49" max="51" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51">
@@ -50774,11 +50774,11 @@
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.1796875" style="36"/>
-    <col min="6" max="6" width="8.81640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.1796875" style="36"/>
+    <col min="1" max="5" width="9.1640625" style="36"/>
+    <col min="6" max="6" width="8.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
@@ -52239,12 +52239,12 @@
       <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="8" width="14.7265625" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="16"/>
-    <col min="10" max="11" width="14.7265625" customWidth="1"/>
-    <col min="12" max="12" width="13.7265625" customWidth="1"/>
+    <col min="2" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="9.1640625" style="16"/>
+    <col min="10" max="11" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -52267,7 +52267,7 @@
       <c r="K2" s="36"/>
       <c r="L2" s="36"/>
     </row>
-    <row r="3" spans="1:12" ht="58">
+    <row r="3" spans="1:12" ht="64">
       <c r="A3" s="36"/>
       <c r="B3" s="17" t="s">
         <v>97</v>
@@ -53989,10 +53989,10 @@
       <selection activeCell="U6" sqref="U6:AG36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="15" max="15" width="9.1796875" style="16"/>
-    <col min="16" max="19" width="14.7265625" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" style="16"/>
+    <col min="16" max="19" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -54024,7 +54024,7 @@
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
     </row>
-    <row r="2" spans="1:19" ht="87">
+    <row r="2" spans="1:19" ht="80">
       <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
         <v>112</v>
@@ -56792,12 +56792,12 @@
       <selection activeCell="K6" sqref="K6:V32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="14.7265625" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" style="16"/>
-    <col min="8" max="9" width="14.7265625" customWidth="1"/>
+    <col min="2" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="16"/>
+    <col min="8" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -56828,7 +56828,7 @@
       <c r="U2" s="36"/>
       <c r="V2" s="36"/>
     </row>
-    <row r="3" spans="1:22" ht="72.5">
+    <row r="3" spans="1:22" ht="80">
       <c r="A3" s="36"/>
       <c r="B3" s="17" t="s">
         <v>97</v>
@@ -58449,17 +58449,17 @@
       <selection activeCell="V5" sqref="V5:AG37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="16"/>
+    <col min="1" max="1" width="9.1640625" style="16"/>
     <col min="2" max="7" width="15" style="16" customWidth="1"/>
-    <col min="8" max="9" width="9.1796875" style="16"/>
-    <col min="10" max="13" width="15.453125" style="16" customWidth="1"/>
-    <col min="14" max="16" width="9.1796875" style="16"/>
-    <col min="17" max="17" width="13.7265625" style="16" customWidth="1"/>
-    <col min="18" max="18" width="12.54296875" style="16" customWidth="1"/>
-    <col min="19" max="19" width="11.81640625" style="16" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="16"/>
+    <col min="8" max="9" width="9.1640625" style="16"/>
+    <col min="10" max="13" width="15.5" style="16" customWidth="1"/>
+    <col min="14" max="16" width="9.1640625" style="16"/>
+    <col min="17" max="17" width="13.6640625" style="16" customWidth="1"/>
+    <col min="18" max="18" width="12.5" style="16" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" style="16" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -58493,7 +58493,7 @@
       <c r="R1" s="36"/>
       <c r="S1" s="36"/>
     </row>
-    <row r="2" spans="1:19" ht="45.5">
+    <row r="2" spans="1:19" ht="50">
       <c r="A2" s="36"/>
       <c r="B2" s="17" t="s">
         <v>97</v>
@@ -60915,12 +60915,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100FA9F3DB0CD4D844B918872BCED9B9CF9" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61f75d9b13a46a58fd2456a565edcb9c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cac5d118-ba7b-4807-b700-df6f95cfff50" xmlns:ns3="66951ee6-cd93-49c7-9437-e871b2a117d6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d86870d415110e2c98f3a885b29630d1" ns2:_="" ns3:_="">
     <xsd:import namespace="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
@@ -61137,6 +61131,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8AC07A3D-D874-401C-A83C-A39BC77B299C}">
   <ds:schemaRefs>
@@ -61146,23 +61146,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F70F53-0027-4CFF-A484-5262E7759E70}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6795C6FA-11C6-4C0F-BBE2-D5C5072215EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -61179,4 +61162,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51F70F53-0027-4CFF-A484-5262E7759E70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>